--- a/medicine/Psychotrope/Café-théâtre/Café-théâtre.xlsx
+++ b/medicine/Psychotrope/Café-théâtre/Café-théâtre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9-th%C3%A9%C3%A2tre</t>
+          <t>Café-théâtre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le café-théâtre est, comme son nom l'indique, un petit théâtre dans lequel il est possible de boire, mais ce n'est pas nécessairement le cas.
 Le cadre plutôt restreint qui s'offre aux artistes les oblige à s'adapter, de ce fait les moyens techniques sont très limités ainsi que le nombre d'acteurs sur scène. De plus, la représentation ne dure généralement que 50 à 60 minutes permettant ainsi l'enchaînement de plusieurs spectacles devant un public restreint lui aussi, la salle ne pouvant contenir qu'une quarantaine, voire une cinquantaine de personnes.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caf%C3%A9-th%C3%A9%C3%A2tre</t>
+          <t>Café-théâtre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le concept du café-théâtre dans sa forme et sa programmation date des années 1960. En 1960, Maurice Alezra ouvre à La Vieille Grille une épicerie buvette se trouvant rue Larrey à Paris, où sont présentés des spectacles, de la poésie et des chansons.
 Ce n'est que le 26 février 1966 qu'est inauguré le tout premier café-théâtre en tant que tel, il s'agit du Royal créé par Bernard Da Costa, situé boulevard Raspail à Paris et qui ne fonctionnera que trois mois.
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caf%C3%A9-th%C3%A9%C3%A2tre</t>
+          <t>Café-théâtre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,23 +572,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quelques lieux
-Café de la Gare est un des plus vieux Cafés-Théâtres. Créé par Coluche et Romain Bouteille en 1969 dans une ancienne fabrique de ventilateurs à Paris, ils seront ensuite rejoints par des amis comme Patrick Dewaere et Martin Lamotte. Encore en activité aujourd'hui, le Café de la Gare propose de nombreux spectacles tout au long de l'année.
+          <t>Quelques lieux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Café de la Gare est un des plus vieux Cafés-Théâtres. Créé par Coluche et Romain Bouteille en 1969 dans une ancienne fabrique de ventilateurs à Paris, ils seront ensuite rejoints par des amis comme Patrick Dewaere et Martin Lamotte. Encore en activité aujourd'hui, le Café de la Gare propose de nombreux spectacles tout au long de l'année.
 Le Théâtre des Blancs-Manteaux : Fondé en 1972, c'était au début une Pizzeria « La Pizza du marais » et très vite devenue café-théâtre, c'est José Artur qui a trouvé le nom définitif « Théâtre Les Blancs Manteaux » ; vers 1976, la salle de restaurant est fermée pour en faire une seconde salle. Les Blancs Manteaux est un vrai vivier d'artistes, beaucoup de chanteurs et comédiens y ont fait leurs débuts : Gérard Hernandez, Bernard Lavilliers, Jacques Higelin, Anne Roumanoff, Catherine Arditi, Catherine Allégret, Fabrice Éboué, Isabeau de R., Isabelle de Botton, Alain Scoff, Patrick Font et Philippe Val, Renaud, Jacques Villeret, Arnaud Cosson, Arnaud Tsamere, Olivier de Benoist, Alex Ramirès et Gérémy Crédeville.
 Le café et le théâtre d'Edgar : Fondé en 1973 pour le café et en 1975 pour le théâtre, par Alain Mallet, ces deux théâtres de petite taille pouvant accueillir 70 spectateurs pour le Café d'Edgar et 80 pour le théâtre d'Edgar, ont toujours œuvré dans la découverte de nouveaux talents, qu'ils soient auteurs, acteurs ou metteurs en scène, et dans la recherche de nouvelles formes théâtrales.
 De plus, ces théâtres jouent un rôle important dans l'animation du quartier du Montparnasse, proposant des spectacles pour enfants, des cours de théâtre mais aussi des animations socioculturelles.
 Le Bec Fin a été l'un des plus célèbres avec une longévité exemplaire. Un spectacle pour enfants « Les mésaventures de l'insupportable Bengaline » de Micheline Bourday, mise en scène de Claude Cortesi a duré six ans.
 Le Théâtre Montorgueil à Paris, ou se joue tous les jours, sans relâche, Les Colocs de Jean Heredia et Robert Punzano (plus de 3 000 représentations, énorme succès de café-théâtre)
-En France, quelques lieux très populaires sont devenus des incontournables du genre. Parmi les plus réputés, on peut citer ceux dont la réputation a dépassé la frontière de leur région, comme le Café-théâtre des Beaux-arts à Bordeaux, le Café-théâtre les 3T à Toulouse, le Complexe du rire[1], l'Espace Gerson[2] ou le Nombril du monde[3] (où Florence Foresti a fait ses débuts avec son spectacle Les Taupes Models en janvier 1999) à Lyon, L'archange ou L'antidote à Marseille, le Bacchus à Rennes ou encore le Côté rocher à Rocamadour et La Fontaine d'Argent à Aix-en-Provence.
+En France, quelques lieux très populaires sont devenus des incontournables du genre. Parmi les plus réputés, on peut citer ceux dont la réputation a dépassé la frontière de leur région, comme le Café-théâtre des Beaux-arts à Bordeaux, le Café-théâtre les 3T à Toulouse, le Complexe du rire, l'Espace Gerson ou le Nombril du monde (où Florence Foresti a fait ses débuts avec son spectacle Les Taupes Models en janvier 1999) à Lyon, L'archange ou L'antidote à Marseille, le Bacchus à Rennes ou encore le Côté rocher à Rocamadour et La Fontaine d'Argent à Aix-en-Provence.
 Le Théâtre Les feux de la rampe, avec comme référence La Guerre des Sexes de Pascal Grégoire ou Vous Les Femmes de Robert Punzano.
 Le Théâtre de l'Alhambra de Bordeaux, qui organisa des revues, des comédies ou encore des concerts de 1878 à 1982.
-En 1967, J. Bocquet et P. Blondet, directeurs du Kaléidoscope, font d’un café voisin, l’Absidiole, ce qui sera un des meilleurs cafés-théâtres de Paris jusqu’en décembre 1973. — (Philippe Rouyer, Guy Suire, Jack Boucher, Cafés théâtres de France et d’ailleurs, Publications de la Maison des sciences de l'homme d’Aquitaine, 1979, page 24).
-Quelques écoles
-Hormis les grandes écoles parisiennes de théâtre, on trouve aujourd'hui de plus en plus de Cafés-Théâtres qui proposent des cours d'art dramatique, s'inscrivant parfois dans de véritables formations de plusieurs années. Le café-théâtre « l'Azile » à La Rochelle en est un bon exemple puisqu'il dispose d'une école proposant des cours et des ateliers ouverts à tous, à la séance, au mois ou à l'année. Seule contrainte, l'entrée dans l'école se fait sous auditions.
-D'autres écoles offertes cette fois par le café-théâtre « Le Bout » situé à Paris : l'École du café-théâtre est une formation professionnelle sur trois ans qui s'adresse tant aux amateurs qu'aux intermittents du spectacle, dans le but de former « les humoristes de demain ». Rattaché à cette enseigne, l'École du One-Man-Show est la première école professionnelle en France (300 élèves). Créée en 1994 par William Pasquiet, elle cible sa formation pour les comédiens et auteurs comiques, improvisateurs et Stand-Upers.
-En 2015, une antenne de l'école parisienne a été créée à Rennes, à la Brasserie-Cabaret, « la Lanterne »[4],[5].
-Bon nombre d'artistes issus de ces écoles sont aujourd'hui intermittents du spectacle et reconnus dans le milieu.
-</t>
+En 1967, J. Bocquet et P. Blondet, directeurs du Kaléidoscope, font d’un café voisin, l’Absidiole, ce qui sera un des meilleurs cafés-théâtres de Paris jusqu’en décembre 1973. — (Philippe Rouyer, Guy Suire, Jack Boucher, Cafés théâtres de France et d’ailleurs, Publications de la Maison des sciences de l'homme d’Aquitaine, 1979, page 24).</t>
         </is>
       </c>
     </row>
@@ -584,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Caf%C3%A9-th%C3%A9%C3%A2tre</t>
+          <t>Café-théâtre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,10 +612,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Salles et écoles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Quelques écoles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hormis les grandes écoles parisiennes de théâtre, on trouve aujourd'hui de plus en plus de Cafés-Théâtres qui proposent des cours d'art dramatique, s'inscrivant parfois dans de véritables formations de plusieurs années. Le café-théâtre « l'Azile » à La Rochelle en est un bon exemple puisqu'il dispose d'une école proposant des cours et des ateliers ouverts à tous, à la séance, au mois ou à l'année. Seule contrainte, l'entrée dans l'école se fait sous auditions.
+D'autres écoles offertes cette fois par le café-théâtre « Le Bout » situé à Paris : l'École du café-théâtre est une formation professionnelle sur trois ans qui s'adresse tant aux amateurs qu'aux intermittents du spectacle, dans le but de former « les humoristes de demain ». Rattaché à cette enseigne, l'École du One-Man-Show est la première école professionnelle en France (300 élèves). Créée en 1994 par William Pasquiet, elle cible sa formation pour les comédiens et auteurs comiques, improvisateurs et Stand-Upers.
+En 2015, une antenne de l'école parisienne a été créée à Rennes, à la Brasserie-Cabaret, « la Lanterne »,.
+Bon nombre d'artistes issus de ces écoles sont aujourd'hui intermittents du spectacle et reconnus dans le milieu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Café-théâtre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caf%C3%A9-th%C3%A9%C3%A2tre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Pièces de café-théâtre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Trio pour deux canaris, Bernard Da Costa 1966
 Des boulons dans mon yaourth, 1971
